--- a/biology/Botanique/Corsiaceae/Corsiaceae.xlsx
+++ b/biology/Botanique/Corsiaceae/Corsiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Corsiacées regroupe des plantes monocotylédones. Selon Watson &amp; Dallwitz elle comprend une dizaine d'espèces réparties en 2 ou 3 genres.
 Ce sont des plantes herbacées saprophytes, à feuilles réduites à des écailles, pérennes, rhizomateuses ou tubéreuses, des régions subtropicales à tropicales. On les rencontre en Nouvelle-Guinée, en Australie, aux Îles Salomon et au Chili.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Corsia (en) qui a été donné en hommage au marquis Bardi Corsi Salviati (1844-1907) qui fonda une importante collection de plantes, dans les serres de son domaine de Florence (Italie), la Villa Corsi Salviati (it)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Corsia (en) qui a été donné en hommage au marquis Bardi Corsi Salviati (1844-1907) qui fonda une importante collection de plantes, dans les serres de son domaine de Florence (Italie), la Villa Corsi Salviati (it).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[2] a situé cette famille à la base des monocotylédones. Aujourd'hui, la classification phylogénétique APG II (2003)[3] et classification phylogénétique APG III (2009)[4] la situent dans l'ordre Liliales. Selon le Angiosperm Phylogeny Website (8 novembre 2007) elle comprend 30 espèces réparties en 3 genres.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998) a situé cette famille à la base des monocotylédones. Aujourd'hui, la classification phylogénétique APG II (2003) et classification phylogénétique APG III (2009) la situent dans l'ordre Liliales. Selon le Angiosperm Phylogeny Website (8 novembre 2007) elle comprend 30 espèces réparties en 3 genres.
 </t>
         </is>
       </c>
@@ -574,13 +590,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010) :
 Arachnitis (en) Phil. (1864)
 Corsia (en) Becc. (1878)
 Corsiopsis (en) D.X.Zhang, R.M.K.Saunders &amp; C.M.Hu (1999)
-Selon Angiosperm Phylogeny Website                        (18 mai 2010)[6] et DELTA Angio           (15 avr. 2010)[7] :
+Selon Angiosperm Phylogeny Website                        (18 mai 2010) et DELTA Angio           (15 avr. 2010) :
 Arachnitis Phil.
 Corsia Becc.</t>
         </is>
@@ -610,9 +628,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010) :
 genre Arachnitis Phil. (1864)
 Arachnitis uniflora  Phil. (1864)
 genre Corsia Becc. (1878)
